--- a/data/long_bre/P23_1-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_1-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,86%</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-4,12%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>66,02%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 9,31</t>
+          <t>-11,85; 10,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 10,8</t>
+          <t>-13,52; 11,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-49,91; 62,48</t>
+          <t>-5,37; 23,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 53,34</t>
+          <t>-46,69; 72,66</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 60,58</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-27,89; 250,87</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,58%</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,22%</t>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-10,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-9,53%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 14,58</t>
+          <t>-9,61; 19,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 7,56</t>
+          <t>-20,08; 6,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 32,62</t>
+          <t>-22,22; 13,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,75; 13,28</t>
+          <t>-15,98; 49,97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 10,91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-32,33; 25,77</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,8%</t>
+          <t>-10,53%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75,15%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-22,66%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 14,95</t>
+          <t>-18,21; 9,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 15,56</t>
+          <t>-1,4; 16,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 92,41</t>
+          <t>-20,98; 8,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 243,06</t>
+          <t>-47,24; 42,99</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 277,44</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-64,48; 76,91</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 15,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 3,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 119,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,12; 13,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,17%</t>
+          <t>24,48%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-26,05%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,05%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 22,49</t>
+          <t>-6,65; 15,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 10,85</t>
+          <t>-25,9; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 67,99</t>
+          <t>-12,92; 21,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,3; 28,4</t>
+          <t>-26,83; 120,47</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-55,67; 12,49</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-35,28; 129,57</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,56</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,35%</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>22,25%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-5,61%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-17,41%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,49; -0,12</t>
+          <t>-5,1; 23,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 21,4</t>
+          <t>-15,0; 11,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 0,12</t>
+          <t>-29,58; 7,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 163,2</t>
+          <t>-10,31; 77,16</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-26,56; 30,23</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-46,61; 18,46</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>-32,06%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61,06%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 3,39</t>
+          <t>-29,9; 1,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 14,14</t>
+          <t>1,97; 20,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-47,49; 15,83</t>
+          <t>-10,93; 15,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 63,51</t>
+          <t>-55,69; 5,78</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 161,92</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-37,62; 102,63</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,52%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 2,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,69; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 7,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,83</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54,0%</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>-20,54%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 24,81</t>
+          <t>-14,3; 3,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,3</t>
+          <t>-2,94; 13,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>12,78; 113,46</t>
+          <t>-10,36; 9,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 45,69</t>
+          <t>-48,17; 18,98</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 63,84</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 37,26</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-28,27%</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>-21,55%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-16,47%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18,37%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 0,96</t>
+          <t>-22,8; -0,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 7,67</t>
+          <t>-17,87; 1,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,46; 5,96</t>
+          <t>-3,92; 18,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 27,84</t>
+          <t>-40,85; -0,28</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-33,38; 4,76</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 53,99</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,55%</t>
+          <t>56,21%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-26,93%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 17,08</t>
+          <t>5,74; 24,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 4,95</t>
+          <t>-6,39; 10,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 52,65</t>
+          <t>-16,2; 1,78</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 13,35</t>
+          <t>16,8; 114,67</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-20,29; 46,43</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-48,37; 10,94</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,38%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 11,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 30,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 54,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-12,75</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-14,67%</t>
+          <t>-26,41%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-21,84; -2,88</t>
+          <t>-17,63; 1,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 4,42</t>
+          <t>-8,89; 8,18</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-65,77; -11,94</t>
+          <t>-7,79; 10,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-39,99; 18,85</t>
+          <t>-51,94; 9,32</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-24,06; 30,23</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-24,04; 47,27</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>18,04%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-11,99%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-7,36%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,28; 29,2</t>
+          <t>-1,95; 17,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 16,44</t>
+          <t>-13,99; 3,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>15,18; 115,85</t>
+          <t>-16,5; 6,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 41,28</t>
+          <t>-4,85; 52,42</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-30,11; 8,06</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 15,46</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-12,3%</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-9,04%</t>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>24,34%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 6,48</t>
+          <t>-9,72; 8,84</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 6,7</t>
+          <t>-2,05; 14,16</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 19,08</t>
+          <t>-6,75; 12,3</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 31,16</t>
+          <t>-23,53; 29,5</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; 73,12</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-22,07; 60,65</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-16,72</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-45,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-35,17; -1,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 11,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-70,73; -3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 79,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>-12,72</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>64,44%</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>-45,78%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-12,02%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-23,81%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>6,5; 33,2</t>
+          <t>-22,49; -4,09</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 14,97</t>
+          <t>-12,06; 4,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>16,88; 148,02</t>
+          <t>-19,84; 5,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 36,13</t>
+          <t>-66,22; -14,3</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-38,71; 20,96</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-53,76; 22,89</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>18,19</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>56,64%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 10,64</t>
+          <t>7,39; 30,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 7,99</t>
+          <t>-2,52; 16,16</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 42,46</t>
+          <t>-13,06; 11,92</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 30,08</t>
+          <t>19,38; 115,93</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 40,76</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-27,77; 34,24</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-25,21%</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-1,91%</t>
+          <t>-13,63%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>26,82%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-11,63; -1,86</t>
+          <t>-17,0; 6,03</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,55</t>
+          <t>-12,48; 5,82</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-39,43; -8,11</t>
+          <t>-5,97; 17,85</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 14,21</t>
+          <t>-36,8; 18,15</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-38,34; 24,45</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; 79,2</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-5,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>2,96; 31,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 5,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-12,17</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>-36,39%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,57</t>
+          <t>-29,12; 0,01</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 7,58</t>
+          <t>-6,51; 11,86</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 14,92</t>
+          <t>-10,26; 15,67</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 36,38</t>
+          <t>-66,28; 6,07</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-26,7; 78,99</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-34,0; 97,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>16,58</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>52,19%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-6,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 29,28</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 15,36</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 12,34</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 113,73</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 39,93</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-36,23; 32,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-12,69%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-20,41%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-0,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-16,82; 8,45</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-18,06; 5,1</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 15,04</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-40,28; 30,66</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-47,14; 19,92</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-40,97; 72,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-5,29</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2,05</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-21,25%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; -1,07</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 3,33</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 7,19</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; -4,8</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 13,13</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-10,46; 31,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-4,7%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-4,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 11,59</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-6,91; 2,18</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-8,11; 4,33</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 31,41</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 4,72</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-15,79; 9,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-3,01%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 3,82</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 6,98</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 4,76</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-17,88; 12,34</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 31,89</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-16,51; 20,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
